--- a/DDAf_2024_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A31C34-F8A1-4E3A-9E29-3F4DB7B28CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1428394B-DED2-457C-8571-0EC3CAC2DCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B3D50BF7-F22B-4EF4-B021-69FD9EF1BA6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34D47622-D7A5-4354-8A3F-4E5DC7BB2C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -1669,25 +1669,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B676CACE-4358-4C5B-BD58-3280DADAD890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72CF61F-A3B2-4A87-8B67-360F1C9A0143}">
   <dimension ref="A1:AH114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="129" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="34" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="129" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="34" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1724,7 +1724,7 @@
       <c r="AG1" s="6"/>
       <c r="AH1" s="6"/>
     </row>
-    <row r="2" spans="1:34" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>4996.16</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>37</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>2273.5</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>39</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>43</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>483.85</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>45</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>2827.3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>47</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>158.25</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>49</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>187686.32</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>51</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>2216.09</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>53</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>2477.3000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>55</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>203119.29</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>57</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>118.02</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>59</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>1336.15</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>61</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>63</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>325.64</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>65</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>1573.4</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>67</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>112.03</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>69</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>937.07</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>71</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>73</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>102.33</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
         <v>55</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>5349.82</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>76</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>50.12</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>78</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>80</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>82</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>84</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>915.15</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>86</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>1018.48</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>88</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>2194.77</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>90</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>364.31</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>92</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>430.13</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>94</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>96</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>98</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>5408.72</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>100</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>4558.2</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>102</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>58.14</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="49" t="s">
         <v>55</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>16429.02</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>105</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>78432</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>107</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>173613.89</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>109</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>29491</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>111</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>113</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>31352.73</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>115</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>20326.900000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="49" t="s">
         <v>55</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>334379.52000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>118</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>1340.3</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>120</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>528.21</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>122</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>348.79</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>124</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>11216</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>126</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>386.22</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>128</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>12820</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>130</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>935.07</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>132</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>24.78</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>134</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>136</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>1134.77</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>138</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>522.75</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>140</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>27399.53</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>142</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>3733.97</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>144</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>146</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>513.64</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="49"/>
       <c r="B61" s="50" t="s">
         <v>148</v>
@@ -7962,7 +7962,7 @@
         <v>61082.03</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="81"/>
       <c r="B62" s="82" t="s">
         <v>149</v>
@@ -8064,7 +8064,7 @@
         <v>620359.68000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="81"/>
       <c r="B63" s="89" t="s">
         <v>150</v>
@@ -8166,7 +8166,7 @@
         <v>15784040.390000001</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="96"/>
       <c r="B64" s="97" t="s">
         <v>151</v>
@@ -8268,7 +8268,7 @@
         <v>614468.14</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="96"/>
       <c r="B65" s="89" t="s">
         <v>152</v>
@@ -8370,7 +8370,7 @@
         <v>8015910</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="96"/>
       <c r="B66" s="110" t="s">
         <v>153</v>
@@ -8472,7 +8472,7 @@
         <v>16404400.07</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="96"/>
       <c r="B67" s="89" t="s">
         <v>154</v>
@@ -8574,7 +8574,7 @@
         <v>240162.9</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="96"/>
       <c r="B68" s="89" t="s">
         <v>155</v>
@@ -8676,7 +8676,7 @@
         <v>323256.42</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="96"/>
       <c r="B69" s="89" t="s">
         <v>156</v>
@@ -8778,7 +8778,7 @@
         <v>6672.85</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="96"/>
       <c r="B70" s="89" t="s">
         <v>157</v>
@@ -8880,7 +8880,7 @@
         <v>10710.29</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="96"/>
       <c r="B71" s="89" t="s">
         <v>158</v>
@@ -8982,7 +8982,7 @@
         <v>61082.03</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="96"/>
       <c r="B72" s="89" t="s">
         <v>159</v>
@@ -9084,7 +9084,7 @@
         <v>7394.01</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="96"/>
       <c r="B73" s="89" t="s">
         <v>160</v>
@@ -9186,7 +9186,7 @@
         <v>211483.02</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="96"/>
       <c r="B74" s="89" t="s">
         <v>160</v>
@@ -9288,7 +9288,7 @@
         <v>160765.63</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="96"/>
       <c r="B75" s="89" t="s">
         <v>161</v>
@@ -9390,7 +9390,7 @@
         <v>8299.36</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="96"/>
       <c r="B76" s="117" t="s">
         <v>162</v>
@@ -9492,7 +9492,7 @@
         <v>849240.6</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="96"/>
       <c r="B77" s="89" t="s">
         <v>163</v>
@@ -9594,7 +9594,7 @@
         <v>304649.18</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="96"/>
       <c r="B78" s="89" t="s">
         <v>163</v>
@@ -9696,7 +9696,7 @@
         <v>1017894.13</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="96"/>
       <c r="B79" s="110" t="s">
         <v>164</v>
@@ -9798,7 +9798,7 @@
         <v>5732742.8200000003</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="96"/>
       <c r="B80" s="89" t="s">
         <v>165</v>
@@ -9900,7 +9900,7 @@
         <v>118654.06</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="96"/>
       <c r="B81" s="89" t="s">
         <v>166</v>
@@ -10002,7 +10002,7 @@
         <v>1984058.24</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="96"/>
       <c r="B82" s="89" t="s">
         <v>167</v>
@@ -10104,7 +10104,7 @@
         <v>501705.62</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="96"/>
       <c r="B83" s="89" t="s">
         <v>168</v>
@@ -10206,7 +10206,7 @@
         <v>13799982.15</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="96"/>
       <c r="B84" s="117" t="s">
         <v>169</v>
@@ -10308,7 +10308,7 @@
         <v>15316.04</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="96"/>
       <c r="B85" s="124" t="s">
         <v>170</v>
@@ -10410,7 +10410,7 @@
         <v>38764.46</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="96"/>
       <c r="B86" s="89" t="s">
         <v>171</v>
@@ -10512,7 +10512,7 @@
         <v>381032.6</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="96"/>
       <c r="B87" s="89" t="s">
         <v>172</v>
@@ -10614,7 +10614,7 @@
         <v>2178152.31</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="96"/>
       <c r="B88" s="89" t="s">
         <v>173</v>
@@ -10716,7 +10716,7 @@
         <v>223580.91</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="96"/>
       <c r="B89" s="89" t="s">
         <v>174</v>
@@ -10818,7 +10818,7 @@
         <v>7448551.8300000001</v>
       </c>
     </row>
-    <row r="90" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="96"/>
       <c r="B90" s="110" t="s">
         <v>175</v>
@@ -10920,7 +10920,7 @@
         <v>6107291.4000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="96"/>
       <c r="B91" s="89" t="s">
         <v>176</v>
@@ -11022,7 +11022,7 @@
         <v>34536.800000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="96"/>
       <c r="B92" s="89" t="s">
         <v>177</v>
@@ -11124,7 +11124,7 @@
         <v>120095.34</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="96"/>
       <c r="B93" s="89" t="s">
         <v>178</v>
@@ -11226,7 +11226,7 @@
         <v>3150.92</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" s="96"/>
       <c r="B94" s="89" t="s">
         <v>179</v>
@@ -11328,7 +11328,7 @@
         <v>111654.87</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="96"/>
       <c r="B95" s="89" t="s">
         <v>180</v>
@@ -11430,7 +11430,7 @@
         <v>11055.28</v>
       </c>
     </row>
-    <row r="96" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="96"/>
       <c r="B96" s="89" t="s">
         <v>181</v>
@@ -11532,7 +11532,7 @@
         <v>220155.4</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" s="96"/>
       <c r="B97" s="117" t="s">
         <v>182</v>
@@ -11634,7 +11634,7 @@
         <v>95411.88</v>
       </c>
     </row>
-    <row r="98" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="96"/>
       <c r="B98" s="110" t="s">
         <v>183</v>
@@ -11736,7 +11736,7 @@
         <v>562693.11</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" s="125"/>
       <c r="B99" s="126"/>
       <c r="C99" s="91"/>
@@ -11772,7 +11772,7 @@
       <c r="AG99" s="91"/>
       <c r="AH99" s="91"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>184</v>
       </c>
@@ -11809,7 +11809,7 @@
       <c r="AG100" s="127"/>
       <c r="AH100" s="127"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>185</v>
       </c>
@@ -11846,7 +11846,7 @@
       <c r="AG101" s="127"/>
       <c r="AH101" s="127"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>186</v>
       </c>
@@ -11883,7 +11883,7 @@
       <c r="AG102" s="127"/>
       <c r="AH102" s="127"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>187</v>
       </c>
@@ -11920,7 +11920,7 @@
       <c r="AG103" s="127"/>
       <c r="AH103" s="127"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>188</v>
       </c>
@@ -11957,7 +11957,7 @@
       <c r="AG104" s="127"/>
       <c r="AH104" s="127"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>189</v>
       </c>
@@ -11994,7 +11994,7 @@
       <c r="AG105" s="127"/>
       <c r="AH105" s="127"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C106" s="127"/>
       <c r="D106" s="127"/>
       <c r="E106" s="127"/>
@@ -12028,7 +12028,7 @@
       <c r="AG106" s="127"/>
       <c r="AH106" s="127"/>
     </row>
-    <row r="107" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="128" t="s">
         <v>190</v>
       </c>
@@ -12065,7 +12065,7 @@
       <c r="AG107" s="127"/>
       <c r="AH107" s="127"/>
     </row>
-    <row r="108" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="128"/>
       <c r="C108" s="127"/>
       <c r="D108" s="127"/>
@@ -12100,7 +12100,7 @@
       <c r="AG108" s="127"/>
       <c r="AH108" s="127"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>192</v>
       </c>
@@ -12137,7 +12137,7 @@
       <c r="AG109" s="127"/>
       <c r="AH109" s="127"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>193</v>
       </c>
@@ -12174,7 +12174,7 @@
       <c r="AG110" s="127"/>
       <c r="AH110" s="127"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B111" s="130" t="s">
         <v>194</v>
       </c>
@@ -12211,7 +12211,7 @@
       <c r="AG111" s="127"/>
       <c r="AH111" s="127"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>191</v>
       </c>
@@ -12248,7 +12248,7 @@
       <c r="AG112" s="127"/>
       <c r="AH112" s="127"/>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="127"/>
       <c r="D113" s="127"/>
@@ -12283,7 +12283,7 @@
       <c r="AG113" s="127"/>
       <c r="AH113" s="127"/>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="127"/>
       <c r="D114" s="127"/>
@@ -12320,11 +12320,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{24A8F001-5D58-4DDF-9125-AFB5C4F7052B}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{805D322B-DA39-4A9B-8B5A-25923EEDAC13}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{3A873B82-027E-47D4-B2C1-65D131618C05}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{483988B4-085D-4C08-8609-01E0FCA99D31}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{E3114893-6CA3-4989-A4BC-9A81803FEDBB}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{CC5A39CF-55BE-413A-866D-4F9DD54291CD}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5BA36723-3B75-4651-AEE8-F4B4B4DE01F1}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{6F5054A4-9AEE-4341-8A73-D65EE6524204}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{6663C747-2ED9-4244-B7F5-C346CFDCEDEE}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{F73AAC1F-3841-47B0-8420-98987103A633}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1428394B-DED2-457C-8571-0EC3CAC2DCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4467FE7-6DA0-4000-9E3D-240698BD5075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34D47622-D7A5-4354-8A3F-4E5DC7BB2C1D}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{AA3CC36D-FE82-4D43-9A7B-74DB4C5085E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -1352,8 +1352,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1669,7 +1669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72CF61F-A3B2-4A87-8B67-360F1C9A0143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF487614-3E4E-4D61-9D48-2CA7B4D4040B}">
   <dimension ref="A1:AH114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1678,7 +1678,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="129" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="130" bestFit="1" customWidth="1"/>
     <col min="4" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -12175,7 +12175,7 @@
       <c r="AH110" s="127"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B111" s="130" t="s">
+      <c r="B111" s="129" t="s">
         <v>194</v>
       </c>
       <c r="C111" s="127"/>
@@ -12212,7 +12212,7 @@
       <c r="AH111" s="127"/>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="129" t="s">
         <v>191</v>
       </c>
       <c r="C112" s="127"/>
@@ -12320,11 +12320,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{CC5A39CF-55BE-413A-866D-4F9DD54291CD}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5BA36723-3B75-4651-AEE8-F4B4B4DE01F1}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{6F5054A4-9AEE-4341-8A73-D65EE6524204}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{6663C747-2ED9-4244-B7F5-C346CFDCEDEE}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{F73AAC1F-3841-47B0-8420-98987103A633}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1501E29C-E5CC-4CC0-B5C7-1E701F306116}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A25AD6CF-B7A3-45F0-B503-1DB61BE19207}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{E172640B-57B7-4689-AD9C-6758879B0E82}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{4FE35BDA-B06C-4280-BD33-13B7A27A02D8}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{261C48D2-32F4-4023-BA1E-1B7535488A8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4467FE7-6DA0-4000-9E3D-240698BD5075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3C2847F-AB0A-47E2-B4B0-2962AD6A03C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{AA3CC36D-FE82-4D43-9A7B-74DB4C5085E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{731A4862-771C-4A9A-8480-CCD0F459F03F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="197">
   <si>
     <t>Tableau 26 : Électricité et énergie durable</t>
   </si>
@@ -524,13 +524,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1669,7 +1675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF487614-3E4E-4D61-9D48-2CA7B4D4040B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64BA643-0861-4CF8-9E58-0AB88EB04F50}">
   <dimension ref="A1:AH114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -9189,7 +9195,7 @@
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="96"/>
       <c r="B74" s="89" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C74" s="104">
         <v>99141.392790670507</v>
@@ -9291,7 +9297,7 @@
     <row r="75" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="96"/>
       <c r="B75" s="89" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C75" s="90">
         <v>28208.5364636255</v>
@@ -9393,7 +9399,7 @@
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="96"/>
       <c r="B76" s="117" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C76" s="118">
         <v>638985.37233523501</v>
@@ -9495,7 +9501,7 @@
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="96"/>
       <c r="B77" s="89" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C77" s="104">
         <v>430441.55063621502</v>
@@ -9597,7 +9603,7 @@
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="96"/>
       <c r="B78" s="89" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C78" s="104">
         <v>445279.88864749501</v>
@@ -9699,7 +9705,7 @@
     <row r="79" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="96"/>
       <c r="B79" s="110" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C79" s="111">
         <v>1369599.6077361701</v>
@@ -9801,7 +9807,7 @@
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="96"/>
       <c r="B80" s="89" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C80" s="104">
         <v>76718.830717640594</v>
@@ -9903,7 +9909,7 @@
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="96"/>
       <c r="B81" s="89" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C81" s="104">
         <v>485546.86891431903</v>
@@ -10005,7 +10011,7 @@
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="96"/>
       <c r="B82" s="89" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C82" s="104">
         <v>685432.72685705905</v>
@@ -10107,7 +10113,7 @@
     <row r="83" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="96"/>
       <c r="B83" s="89" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C83" s="90">
         <v>5802619.7302400302</v>
@@ -10209,7 +10215,7 @@
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="96"/>
       <c r="B84" s="117" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C84" s="118">
         <v>193901.66580935201</v>
@@ -10311,7 +10317,7 @@
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="96"/>
       <c r="B85" s="124" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C85" s="104">
         <v>93936.858463570999</v>
@@ -10413,7 +10419,7 @@
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="96"/>
       <c r="B86" s="89" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C86" s="104">
         <v>506194.035399038</v>
@@ -10515,7 +10521,7 @@
     <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="96"/>
       <c r="B87" s="89" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C87" s="104">
         <v>2269161.06691114</v>
@@ -10617,7 +10623,7 @@
     <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="96"/>
       <c r="B88" s="89" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C88" s="104">
         <v>61950.326366309098</v>
@@ -10719,7 +10725,7 @@
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="96"/>
       <c r="B89" s="89" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C89" s="104">
         <v>2691470.4926734599</v>
@@ -10821,7 +10827,7 @@
     <row r="90" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="96"/>
       <c r="B90" s="110" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C90" s="111">
         <v>1205213.2581060899</v>
@@ -10923,7 +10929,7 @@
     <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="96"/>
       <c r="B91" s="89" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C91" s="104">
         <v>271821.58946286602</v>
@@ -11025,7 +11031,7 @@
     <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="96"/>
       <c r="B92" s="89" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C92" s="104">
         <v>315615.67686485901</v>
@@ -11127,7 +11133,7 @@
     <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="96"/>
       <c r="B93" s="89" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C93" s="104">
         <v>3486.2115603369798</v>
@@ -11229,7 +11235,7 @@
     <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" s="96"/>
       <c r="B94" s="89" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C94" s="104">
         <v>50774.971331315202</v>
@@ -11331,7 +11337,7 @@
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="96"/>
       <c r="B95" s="89" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C95" s="104">
         <v>132470.93971391401</v>
@@ -11433,7 +11439,7 @@
     <row r="96" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="96"/>
       <c r="B96" s="89" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C96" s="90">
         <v>187035.46156190499</v>
@@ -11535,7 +11541,7 @@
     <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" s="96"/>
       <c r="B97" s="117" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C97" s="118">
         <v>395922.05445362598</v>
@@ -11637,7 +11643,7 @@
     <row r="98" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="96"/>
       <c r="B98" s="110" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C98" s="111">
         <v>576436.72602103697</v>
@@ -11774,7 +11780,7 @@
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C100" s="127"/>
       <c r="D100" s="127"/>
@@ -11811,7 +11817,7 @@
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C101" s="127"/>
       <c r="D101" s="127"/>
@@ -11848,7 +11854,7 @@
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C102" s="127"/>
       <c r="D102" s="127"/>
@@ -11885,7 +11891,7 @@
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C103" s="127"/>
       <c r="D103" s="127"/>
@@ -11922,7 +11928,7 @@
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C104" s="127"/>
       <c r="D104" s="127"/>
@@ -11959,7 +11965,7 @@
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C105" s="127"/>
       <c r="D105" s="127"/>
@@ -12030,7 +12036,7 @@
     </row>
     <row r="107" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="128" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C107" s="127"/>
       <c r="D107" s="127"/>
@@ -12102,7 +12108,7 @@
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C109" s="127"/>
       <c r="D109" s="127"/>
@@ -12139,7 +12145,7 @@
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C110" s="127"/>
       <c r="D110" s="127"/>
@@ -12176,7 +12182,7 @@
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B111" s="129" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C111" s="127"/>
       <c r="D111" s="127"/>
@@ -12213,7 +12219,7 @@
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B112" s="129" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C112" s="127"/>
       <c r="D112" s="127"/>
@@ -12320,11 +12326,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1501E29C-E5CC-4CC0-B5C7-1E701F306116}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A25AD6CF-B7A3-45F0-B503-1DB61BE19207}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{E172640B-57B7-4689-AD9C-6758879B0E82}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{4FE35BDA-B06C-4280-BD33-13B7A27A02D8}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{261C48D2-32F4-4023-BA1E-1B7535488A8D}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{81456DB7-965F-476F-A3A6-2141D22BDB3A}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{92EFE10F-2167-47A5-A9BE-DF83A4688A7C}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{ED924A27-02A4-433E-9C02-494A976EA216}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{A5FBB5C4-CC7F-46FC-B005-4979F4F99611}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{A42A7586-F68E-4D2C-B80E-5CC9B64F17AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
